--- a/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5CB1EC-FA99-4147-AB67-A1E85ED0C23B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F9F640-2C47-47C4-9DF5-8D73302B79BF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="22740" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="69">
   <si>
     <t>User Story</t>
   </si>
@@ -239,6 +239,45 @@
   </si>
   <si>
     <t>Week 2 (2/05/2018)</t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Meet with people for focus group</t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:X
+Turner:
+Mayur:
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Fix document</t>
+  </si>
+  <si>
+    <t>Update document</t>
+  </si>
+  <si>
+    <t>Finalize document
+Meet with focus group</t>
+  </si>
+  <si>
+    <t>Create and fill out document</t>
+  </si>
+  <si>
+    <t>Create and fill the document 
+Update the document</t>
   </si>
 </sst>
 </file>
@@ -690,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -778,7 +817,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>12</v>
       </c>
@@ -824,7 +863,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>14</v>
       </c>
@@ -847,7 +886,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>15</v>
       </c>
@@ -1011,7 +1050,9 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F14" s="13" t="s">
         <v>10</v>
       </c>
@@ -1026,12 +1067,14 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F15" s="13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
@@ -1041,7 +1084,9 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F16" s="13" t="s">
         <v>10</v>
       </c>
@@ -1056,12 +1101,14 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F17" s="13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
@@ -1071,12 +1118,14 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F18" s="13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
@@ -1086,16 +1135,29 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F19" s="13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
@@ -1117,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:G21"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1443,7 +1505,9 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F15" s="18" t="s">
         <v>10</v>
       </c>
@@ -1473,9 +1537,11 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="18" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>10</v>
@@ -1533,12 +1599,14 @@
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="F21" s="18" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1555,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9D4EE-EF66-4647-A07F-23214E7A01E8}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G22"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1564,7 +1632,7 @@
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1818,9 +1886,11 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="F14" s="13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>10</v>
@@ -1833,9 +1903,11 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="F15" s="13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>10</v>
@@ -1848,9 +1920,11 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F16" s="13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>10</v>
@@ -1863,9 +1937,11 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="F17" s="13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>10</v>
@@ -1878,9 +1954,11 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="F18" s="13" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>10</v>
@@ -1893,7 +1971,9 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F19" s="13" t="s">
         <v>10</v>
       </c>
@@ -1908,7 +1988,9 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F20" s="13" t="s">
         <v>10</v>
       </c>
@@ -1923,7 +2005,9 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F21" s="13" t="s">
         <v>10</v>
       </c>
@@ -1938,7 +2022,9 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="F22" s="13" t="s">
         <v>10</v>
       </c>

--- a/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6503E32C-49A7-428F-B7B6-F79133F3998D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3248FDC-2D21-4899-890E-BD461F65AE02}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="22740" windowHeight="15555" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="432" windowWidth="22740" windowHeight="15552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="62">
   <si>
     <t>Story Type</t>
   </si>
@@ -257,6 +257,38 @@
   </si>
   <si>
     <t>When a developers name has an X that means they contributed to the documents</t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn:X</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn:X</t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn: X</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur: 2
+Riggs:
+Carolyn:2</t>
   </si>
 </sst>
 </file>
@@ -692,28 +724,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -739,7 +771,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>10</v>
       </c>
@@ -762,7 +794,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>11</v>
       </c>
@@ -785,7 +817,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>12</v>
       </c>
@@ -808,7 +840,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>13</v>
       </c>
@@ -831,7 +863,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>14</v>
       </c>
@@ -854,7 +886,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>15</v>
       </c>
@@ -879,7 +911,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>16</v>
       </c>
@@ -904,7 +936,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>17</v>
       </c>
@@ -929,7 +961,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>18</v>
       </c>
@@ -952,7 +984,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>19</v>
       </c>
@@ -975,7 +1007,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>20</v>
       </c>
@@ -1000,12 +1032,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="10" t="s">
         <v>31</v>
@@ -1016,7 +1048,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="10" t="s">
         <v>32</v>
@@ -1033,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="10" t="s">
         <v>33</v>
@@ -1050,7 +1082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="10" t="s">
         <v>34</v>
@@ -1067,7 +1099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="10" t="s">
         <v>38</v>
@@ -1084,7 +1116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="10" t="s">
         <v>39</v>
@@ -1101,7 +1133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="10" t="s">
         <v>40</v>
@@ -1118,7 +1150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1132,10 +1164,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -1156,22 +1188,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -1197,7 +1229,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>10</v>
       </c>
@@ -1222,7 +1254,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>11</v>
       </c>
@@ -1247,7 +1279,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>12</v>
       </c>
@@ -1270,7 +1302,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>13</v>
       </c>
@@ -1293,7 +1325,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>14</v>
       </c>
@@ -1316,7 +1348,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>15</v>
       </c>
@@ -1341,7 +1373,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>16</v>
       </c>
@@ -1366,7 +1398,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>17</v>
       </c>
@@ -1391,7 +1423,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>18</v>
       </c>
@@ -1414,7 +1446,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>20</v>
       </c>
@@ -1429,7 +1461,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>4</v>
@@ -1439,12 +1471,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="15" t="s">
         <v>31</v>
@@ -1459,7 +1491,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="15" t="s">
         <v>32</v>
@@ -1474,7 +1506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="15" t="s">
         <v>33</v>
@@ -1489,7 +1521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="15" t="s">
         <v>34</v>
@@ -1506,7 +1538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="15" t="s">
         <v>38</v>
@@ -1521,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="15" t="s">
         <v>39</v>
@@ -1538,7 +1570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="15" t="s">
         <v>35</v>
@@ -1553,7 +1585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="15" t="s">
         <v>37</v>
@@ -1568,7 +1600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="15" t="s">
         <v>36</v>
@@ -1580,10 +1612,10 @@
         <v>4</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="15" t="s">
         <v>40</v>
@@ -1594,10 +1626,10 @@
         <v>48</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1619,25 +1651,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9D4EE-EF66-4647-A07F-23214E7A01E8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1660,7 +1692,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>10</v>
       </c>
@@ -1679,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>11</v>
       </c>
@@ -1698,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>12</v>
       </c>
@@ -1717,7 +1749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>13</v>
       </c>
@@ -1736,7 +1768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>14</v>
       </c>
@@ -1755,7 +1787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>15</v>
       </c>
@@ -1774,7 +1806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>16</v>
       </c>
@@ -1793,7 +1825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>17</v>
       </c>
@@ -1812,7 +1844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>18</v>
       </c>
@@ -1831,7 +1863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>19</v>
       </c>
@@ -1850,7 +1882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>20</v>
       </c>
@@ -1869,12 +1901,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="10" t="s">
         <v>31</v>
@@ -1885,7 +1917,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="10" t="s">
         <v>32</v>
@@ -1902,7 +1934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="10" t="s">
         <v>33</v>
@@ -1919,7 +1951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="10" t="s">
         <v>34</v>
@@ -1930,13 +1962,13 @@
         <v>49</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="10" t="s">
         <v>38</v>
@@ -1947,13 +1979,13 @@
         <v>47</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="10" t="s">
         <v>39</v>
@@ -1964,13 +1996,13 @@
         <v>56</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="10" t="s">
         <v>35</v>
@@ -1981,13 +2013,13 @@
         <v>49</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="10" t="s">
         <v>37</v>
@@ -2004,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="10" t="s">
         <v>36</v>
@@ -2021,7 +2053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="10" t="s">
         <v>40</v>
@@ -2038,11 +2070,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>

--- a/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3248FDC-2D21-4899-890E-BD461F65AE02}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB0A44F-A275-4A95-80D8-DFE698A9DC98}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="432" windowWidth="22740" windowHeight="15552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="432" windowWidth="22740" windowHeight="15552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="70">
   <si>
     <t>Story Type</t>
   </si>
@@ -275,20 +275,79 @@
 Carolyn:X</t>
   </si>
   <si>
-    <t>Cade:X
-Andre:
-Turner:
-Mayur:
-Riggs:
-Carolyn: X</t>
-  </si>
-  <si>
     <t>Cade:
 Andre:
 Turner:
 Mayur: 2
 Riggs:
 Carolyn:2</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur: X
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade: 
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn:X</t>
+  </si>
+  <si>
+    <t>Sprint Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cade:
+Andre:
+Turner: X
+Mayur: X
+Riggs:
+Carolyn: </t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner: X
+Mayur: X
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:
+Turner:X
+Mayur:X
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur: X
+Riggs:
+Carolyn:X</t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:
+Turner:X
+Mayur:
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:
+Turner:X
+Mayur:
+Riggs:
+Carolyn:X</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1461,7 +1520,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>4</v>
@@ -1651,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9D4EE-EF66-4647-A07F-23214E7A01E8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1987,7 @@
         <v>47</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>4</v>
@@ -1945,7 +2004,7 @@
         <v>47</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>4</v>
@@ -1954,7 +2013,7 @@
     <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1962,10 +2021,10 @@
         <v>49</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
@@ -1979,7 +2038,7 @@
         <v>47</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>59</v>
@@ -1996,10 +2055,10 @@
         <v>56</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
@@ -2013,10 +2072,10 @@
         <v>49</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
@@ -2030,10 +2089,10 @@
         <v>49</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
@@ -2050,7 +2109,7 @@
         <v>54</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">

--- a/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB0A44F-A275-4A95-80D8-DFE698A9DC98}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE06FD9-3682-4DB2-A5E2-B816E97E5C66}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="432" windowWidth="22740" windowHeight="15552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="70">
   <si>
     <t>Story Type</t>
   </si>
@@ -354,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -364,8 +364,32 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +402,13 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -387,11 +416,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -406,9 +488,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,8 +521,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -799,8 +925,8 @@
     <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -831,10 +957,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -842,10 +968,10 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2"/>
@@ -854,10 +980,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -865,10 +991,10 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="2"/>
@@ -877,10 +1003,10 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -888,10 +1014,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="2"/>
@@ -900,10 +1026,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -911,10 +1037,10 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="2"/>
@@ -923,10 +1049,10 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -934,10 +1060,10 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="2"/>
@@ -946,23 +1072,23 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>15</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="2"/>
@@ -971,23 +1097,23 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="2"/>
@@ -996,23 +1122,23 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="2"/>
@@ -1021,10 +1147,10 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>18</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1032,10 +1158,10 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="2"/>
@@ -1044,10 +1170,10 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>19</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1055,10 +1181,10 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="2"/>
@@ -1067,23 +1193,23 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>20</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="2"/>
@@ -1091,14 +1217,14 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="4"/>
@@ -1109,7 +1235,7 @@
     </row>
     <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="4"/>
@@ -1117,16 +1243,16 @@
       <c r="E16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="4"/>
@@ -1134,16 +1260,16 @@
       <c r="E17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="4"/>
@@ -1151,16 +1277,16 @@
       <c r="E18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="4"/>
@@ -1168,16 +1294,16 @@
       <c r="E19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="4"/>
@@ -1185,16 +1311,16 @@
       <c r="E20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="4"/>
@@ -1202,10 +1328,10 @@
       <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1213,13 +1339,13 @@
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1257,31 +1383,31 @@
     <col min="5" max="5" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="1"/>
@@ -1289,23 +1415,23 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2"/>
@@ -1314,23 +1440,23 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="2"/>
@@ -1339,21 +1465,21 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>12</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="2"/>
@@ -1362,21 +1488,21 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>13</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="2"/>
@@ -1385,21 +1511,21 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>14</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="2"/>
@@ -1408,23 +1534,23 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>15</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="2"/>
@@ -1433,23 +1559,23 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="2"/>
@@ -1458,23 +1584,23 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>17</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="2"/>
@@ -1483,21 +1609,21 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>18</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="2"/>
@@ -1506,23 +1632,23 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>20</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="2"/>
@@ -1530,164 +1656,164 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="14" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="14" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="14" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1710,422 +1836,424 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9D4EE-EF66-4647-A07F-23214E7A01E8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="19">
         <v>43157</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="19">
         <v>43164</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="D5" s="25"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="D6" s="25"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
         <v>15</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="D10" s="23"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
         <v>18</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="D11" s="25"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
         <v>19</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="D12" s="25"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
         <v>20</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="10" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="10" t="s">
+      <c r="G16" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="10" t="s">
+      <c r="G17" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="10" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="10" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="10" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="10" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="24" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2138,9 +2266,19 @@
       <c r="G26" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE06FD9-3682-4DB2-A5E2-B816E97E5C66}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9F922E-803D-4D56-9C00-CD140B180A93}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="432" windowWidth="22740" windowHeight="15552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="75">
   <si>
     <t>Story Type</t>
   </si>
@@ -259,14 +259,6 @@
     <t>When a developers name has an X that means they contributed to the documents</t>
   </si>
   <si>
-    <t>Cade:X
-Andre:
-Turner:
-Mayur:
-Riggs:
-Carolyn:X</t>
-  </si>
-  <si>
     <t>Cade:
 Andre:
 Turner:
@@ -348,6 +340,49 @@
 Mayur:
 Riggs:
 Carolyn:X</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner: 2
+Mayur:1
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur:1
+Riggs:
+Carolyn: 2</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur:X
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur: 
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cade:
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain Model and Detailed Design Model Document </t>
   </si>
 </sst>
 </file>
@@ -473,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -500,30 +535,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -555,17 +566,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,8 +970,8 @@
     <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1217,8 +1262,8 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1373,454 +1418,465 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="G3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="G4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
         <v>12</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
         <v>13</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+    </row>
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
         <v>14</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
         <v>16</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="F9" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
         <v>17</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="F10" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
         <v>18</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
         <v>20</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="F12" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="14" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="14" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="14" t="s">
+      <c r="F17" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="14" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="14" t="s">
+      <c r="G19" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="14" t="s">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>58</v>
+      <c r="F23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
@@ -1836,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9D4EE-EF66-4647-A07F-23214E7A01E8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1851,240 +1907,240 @@
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="11">
         <v>43157</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="11">
         <v>43164</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>11</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>12</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="D5" s="17"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>13</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>14</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>15</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>16</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>17</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="D10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>18</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="D11" s="17"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>19</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="D12" s="17"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>20</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2093,167 +2149,167 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="26" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="26" t="s">
+      <c r="G21" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="26" t="s">
+      <c r="F22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="30" t="s">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="26" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2267,6 +2323,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2274,11 +2335,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9F922E-803D-4D56-9C00-CD140B180A93}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1219B5-8237-4C63-BED7-9A104FB1EB32}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="432" windowWidth="22740" windowHeight="15552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="22740" windowHeight="15555" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="77">
   <si>
     <t>Story Type</t>
   </si>
@@ -262,14 +262,6 @@
     <t>Cade:
 Andre:
 Turner:
-Mayur:
-Riggs:
-Carolyn:X</t>
-  </si>
-  <si>
-    <t>Cade:
-Andre:
-Turner:
 Mayur: 2
 Riggs:
 Carolyn:2</t>
@@ -383,6 +375,20 @@
   </si>
   <si>
     <t xml:space="preserve">Domain Model and Detailed Design Model Document </t>
+  </si>
+  <si>
+    <t>Week 1(02/26/2018)</t>
+  </si>
+  <si>
+    <t>Week 1(03/05/2018)</t>
+  </si>
+  <si>
+    <t>Cade:1
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn:</t>
   </si>
 </sst>
 </file>
@@ -566,30 +572,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -611,6 +593,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -958,24 +964,24 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +1007,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1024,7 +1030,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1047,7 +1053,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1070,7 +1076,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1093,7 +1099,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1116,7 +1122,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1141,7 +1147,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1166,7 +1172,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1191,7 +1197,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1214,7 +1220,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1237,7 +1243,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1262,12 +1268,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
         <v>31</v>
@@ -1278,7 +1284,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1295,7 +1301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1312,7 +1318,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1329,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1346,7 +1352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1363,7 +1369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1380,7 +1386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1394,10 +1400,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -1418,465 +1424,465 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1"/>
-    <col min="6" max="7" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>10</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
+      <c r="G3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
         <v>11</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+      <c r="G4" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
         <v>12</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
         <v>13</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>14</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <v>15</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="35" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>16</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="35" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>17</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
-        <v>17</v>
-      </c>
-      <c r="B10" s="35" t="s">
+      <c r="G10" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>18</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
-        <v>18</v>
-      </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <v>20</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="35" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="F12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-    </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="31" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="26" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
@@ -1892,27 +1898,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9D4EE-EF66-4647-A07F-23214E7A01E8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -1928,14 +1933,14 @@
       <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11">
-        <v>43157</v>
-      </c>
-      <c r="G2" s="11">
-        <v>43164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="F2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -1954,7 +1959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -1973,7 +1978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -1992,7 +1997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2011,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2030,7 +2035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2049,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2068,7 +2073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2087,7 +2092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2106,7 +2111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2125,7 +2130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2144,148 +2149,148 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="18" t="s">
         <v>49</v>
       </c>
@@ -2296,13 +2301,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="18" t="s">
         <v>48</v>
       </c>
@@ -2313,21 +2318,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2335,6 +2335,11 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
+++ b/documents/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Software2project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1219B5-8237-4C63-BED7-9A104FB1EB32}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="22740" windowHeight="15555" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="432" windowWidth="22740" windowHeight="15552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="80">
   <si>
     <t>Story Type</t>
   </si>
@@ -302,14 +301,6 @@
 Carolyn:</t>
   </si>
   <si>
-    <t>Cade:X
-Andre:
-Turner:X
-Mayur:X
-Riggs:
-Carolyn:</t>
-  </si>
-  <si>
     <t>Cade:
 Andre:
 Turner:
@@ -336,14 +327,6 @@
   <si>
     <t>Cade:
 Andre:
-Turner: 2
-Mayur:1
-Riggs:
-Carolyn:</t>
-  </si>
-  <si>
-    <t>Cade:
-Andre:
 Turner:
 Mayur:1
 Riggs:
@@ -388,6 +371,42 @@
 Turner:
 Mayur:
 Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:X
+Turner:
+Mayur:
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:X
+Turner:X
+Mayur:X
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>*Created account creation screen
+*Created AES-256 code</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:2
+Turner: 2
+Mayur:1
+Riggs:3
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:1
+Turner:
+Mayur:
+Riggs:2
 Carolyn:</t>
   </si>
 </sst>
@@ -600,14 +619,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -960,28 +979,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +1026,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1030,7 +1049,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1053,7 +1072,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1076,7 +1095,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1099,7 +1118,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1122,7 +1141,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1147,7 +1166,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1172,7 +1191,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1197,7 +1216,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1220,7 +1239,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1243,7 +1262,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1268,12 +1287,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
         <v>31</v>
@@ -1284,7 +1303,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1301,7 +1320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1318,7 +1337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1335,7 +1354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1352,7 +1371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1369,7 +1388,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1386,7 +1405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1400,10 +1419,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -1424,23 +1443,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="7" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -1466,7 +1485,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>10</v>
       </c>
@@ -1484,14 +1503,14 @@
         <v>20</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>11</v>
       </c>
@@ -1509,14 +1528,14 @@
         <v>20</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>12</v>
       </c>
@@ -1539,7 +1558,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>13</v>
       </c>
@@ -1562,7 +1581,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>14</v>
       </c>
@@ -1585,7 +1604,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>15</v>
       </c>
@@ -1610,7 +1629,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>16</v>
       </c>
@@ -1622,20 +1641,20 @@
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="27" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>17</v>
       </c>
@@ -1650,7 +1669,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>4</v>
@@ -1660,7 +1679,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>18</v>
       </c>
@@ -1683,7 +1702,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>20</v>
       </c>
@@ -1708,12 +1727,12 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:11" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
         <v>31</v>
@@ -1728,28 +1747,28 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -1758,30 +1777,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -1790,13 +1809,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -1807,43 +1826,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -1852,13 +1871,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -1871,18 +1890,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
@@ -1898,26 +1917,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9D4EE-EF66-4647-A07F-23214E7A01E8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -1934,13 +1953,13 @@
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -1959,7 +1978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -1978,7 +1997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -1997,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2016,7 +2035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2035,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2054,7 +2073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2073,7 +2092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2092,7 +2111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2111,7 +2130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2130,7 +2149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2149,23 +2168,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="34" t="s">
         <v>32</v>
@@ -2176,13 +2195,13 @@
         <v>47</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="34" t="s">
         <v>33</v>
@@ -2193,13 +2212,13 @@
         <v>47</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="34" t="s">
         <v>61</v>
@@ -2216,7 +2235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="34" t="s">
         <v>38</v>
@@ -2227,13 +2246,13 @@
         <v>47</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="34" t="s">
         <v>39</v>
@@ -2244,13 +2263,13 @@
         <v>56</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="34" t="s">
         <v>35</v>
@@ -2261,13 +2280,13 @@
         <v>49</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="34" t="s">
         <v>37</v>
@@ -2284,7 +2303,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="34" t="s">
         <v>36</v>
@@ -2301,7 +2320,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="34" t="s">
         <v>40</v>
@@ -2318,16 +2337,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2335,11 +2359,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
